--- a/xlsx/香港_intext.xlsx
+++ b/xlsx/香港_intext.xlsx
@@ -29,7 +29,7 @@
     <t>香港 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_美國_香港</t>
+    <t>体育运动_体育运动_明成祖_香港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -69187,7 +69187,7 @@
         <v>3530</v>
       </c>
       <c r="G1975" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1975" t="s">
         <v>4</v>
@@ -69245,7 +69245,7 @@
         <v>3532</v>
       </c>
       <c r="G1977" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H1977" t="s">
         <v>4</v>
